--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56591.26856728149</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56591.26856728149</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7132.6055739591</v>
+        <v>959328.3096522855</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7132.6055739591</v>
+        <v>959328.3096522855</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419455408.012025</v>
+        <v>57957285.48638214</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12197.98070777287</v>
+        <v>1354523.399928514</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23187.15955304225</v>
+        <v>2519447.162236163</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34176.33839831163</v>
+        <v>3684370.924543815</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45619.39444253479</v>
+        <v>4786975.277448798</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56640.28433769703</v>
+        <v>5951899.039756448</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67661.17423285927</v>
+        <v>7116822.802064097</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78682.06412802149</v>
+        <v>8281746.564371742</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89702.95402318373</v>
+        <v>9446670.326679388</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101146.0100674064</v>
+        <v>10549274.67958445</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112166.8999625686</v>
+        <v>11714198.44189209</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123187.7898577308</v>
+        <v>12879122.20419975</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134208.679752893</v>
+        <v>14044045.96650741</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145229.5696480552</v>
+        <v>15208969.72881507</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156452.8707425163</v>
+        <v>16344275.44706069</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>168932.9814015364</v>
+        <v>17308504.59766429</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>335.0000000000314</v>
@@ -27052,13 +27052,13 @@
         <v>52.99999999996851</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>282.0000000001193</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
